--- a/public/static/excel名称.xlsx
+++ b/public/static/excel名称.xlsx
@@ -17308,7 +17308,7 @@
         <v/>
       </c>
       <c r="C3" s="7" t="str">
-        <v>年度/月份：＿＿2023/06＿＿＿＿</v>
+        <v>年度/月份：＿＿2023/07＿＿＿＿</v>
       </c>
       <c r="D3" s="7">
         <v/>
@@ -17343,13 +17343,13 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="10">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B5" s="11" t="str">
-        <v/>
+        <v>一件代发退订完善</v>
       </c>
       <c r="C5" s="11" t="str">
-        <v>17:30 ~ 19:27</v>
+        <v>17:30 ~ 20:07</v>
       </c>
       <c r="D5" s="11">
         <v>20</v>
@@ -17363,13 +17363,13 @@
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="10">
-        <v>45106</v>
+        <v>45134</v>
       </c>
       <c r="B6" s="11" t="str">
-        <v/>
+        <v>低频次订购发包</v>
       </c>
       <c r="C6" s="11" t="str">
-        <v>17:30 ~ 19:21</v>
+        <v>17:30 ~ 19:18</v>
       </c>
       <c r="D6" s="11">
         <v>20</v>
@@ -17383,13 +17383,13 @@
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="10">
-        <v>45105</v>
+        <v>45133</v>
       </c>
       <c r="B7" s="11" t="str">
-        <v/>
+        <v>重构popup公共组件</v>
       </c>
       <c r="C7" s="11" t="str">
-        <v>17:30 ~ 19:33</v>
+        <v>17:30 ~ 19:44</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -17403,13 +17403,13 @@
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="10">
-        <v>45104</v>
+        <v>45132</v>
       </c>
       <c r="B8" s="11" t="str">
-        <v/>
+        <v>完善一件代发逻辑</v>
       </c>
       <c r="C8" s="11" t="str">
-        <v>17:30 ~ 19:37</v>
+        <v>17:30 ~ 19:38</v>
       </c>
       <c r="D8" s="11">
         <v>20</v>
@@ -17423,13 +17423,13 @@
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="10">
-        <v>45103</v>
-      </c>
-      <c r="B9" s="11">
-        <v/>
+        <v>45131</v>
+      </c>
+      <c r="B9" s="11" t="str">
+        <v>优鲜小程序bug修改</v>
       </c>
       <c r="C9" s="11" t="str">
-        <v>17:30 ~ 19:21</v>
+        <v>17:30 ~ 19:48</v>
       </c>
       <c r="D9" s="11">
         <v>20</v>
@@ -17443,13 +17443,13 @@
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="10">
-        <v>45098</v>
-      </c>
-      <c r="B10" s="11">
-        <v/>
+        <v>45129</v>
+      </c>
+      <c r="B10" s="11" t="str">
+        <v>一件代发-退订流程完善</v>
       </c>
       <c r="C10" s="11" t="str">
-        <v>17:30 ~ 19:06</v>
+        <v>17:30 ~ 17:38</v>
       </c>
       <c r="D10" s="11">
         <v>20</v>
@@ -17463,13 +17463,13 @@
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="10">
-        <v>45097</v>
-      </c>
-      <c r="B11" s="11">
-        <v/>
+        <v>45127</v>
+      </c>
+      <c r="B11" s="11" t="str">
+        <v>订单按钮组与鲜月票样式调整</v>
       </c>
       <c r="C11" s="11" t="str">
-        <v>17:30 ~ 19:52</v>
+        <v>17:30 ~ 19:45</v>
       </c>
       <c r="D11" s="11">
         <v>20</v>
@@ -17483,13 +17483,13 @@
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="10">
-        <v>45096</v>
-      </c>
-      <c r="B12" s="11">
-        <v/>
+        <v>45126</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <v>优鲜-service完善</v>
       </c>
       <c r="C12" s="11" t="str">
-        <v>17:30 ~ 19:46</v>
+        <v>17:30 ~ 20:03</v>
       </c>
       <c r="D12" s="11">
         <v>20</v>
@@ -17503,13 +17503,13 @@
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="10">
-        <v>45092</v>
-      </c>
-      <c r="B13" s="11">
-        <v/>
+        <v>45125</v>
+      </c>
+      <c r="B13" s="11" t="str">
+        <v>182提测完善</v>
       </c>
       <c r="C13" s="11" t="str">
-        <v>17:30 ~ 19:40</v>
+        <v>17:30 ~ 19:42</v>
       </c>
       <c r="D13" s="11">
         <v>20</v>
@@ -17523,10 +17523,10 @@
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="10">
-        <v>45091</v>
-      </c>
-      <c r="B14" s="11">
-        <v/>
+        <v>45124</v>
+      </c>
+      <c r="B14" s="11" t="str">
+        <v>完善新版小程序容错问题</v>
       </c>
       <c r="C14" s="11" t="str">
         <v>17:30 ~ 19:50</v>
@@ -17543,16 +17543,16 @@
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="10">
-        <v>45090</v>
-      </c>
-      <c r="B15" s="11">
-        <v/>
+        <v>45122</v>
+      </c>
+      <c r="B15" s="11" t="str">
+        <v>182优鲜联调与调试</v>
       </c>
       <c r="C15" s="11" t="str">
-        <v>17:30 ~ 19:36</v>
+        <v>17:30 ~ 19:00</v>
       </c>
       <c r="D15" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E15" s="11">
         <v/>
@@ -17563,13 +17563,13 @@
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="10">
-        <v>45089</v>
-      </c>
-      <c r="B16" s="11">
-        <v/>
+        <v>45120</v>
+      </c>
+      <c r="B16" s="11" t="str">
+        <v>订单列表，详情，优惠卡券，鲜月票落地完善</v>
       </c>
       <c r="C16" s="11" t="str">
-        <v>17:30 ~ 19:53</v>
+        <v>17:30 ~ 19:47</v>
       </c>
       <c r="D16" s="11">
         <v>20</v>
@@ -17583,13 +17583,13 @@
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="10">
-        <v>45085</v>
-      </c>
-      <c r="B17" s="11">
-        <v/>
+        <v>45119</v>
+      </c>
+      <c r="B17" s="11" t="str">
+        <v>添加确定弹框公共组件</v>
       </c>
       <c r="C17" s="11" t="str">
-        <v>17:30 ~ 19:54</v>
+        <v>17:30 ~ 19:33</v>
       </c>
       <c r="D17" s="11">
         <v>20</v>
@@ -17603,13 +17603,13 @@
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="10">
-        <v>45084</v>
-      </c>
-      <c r="B18" s="11">
-        <v/>
+        <v>45118</v>
+      </c>
+      <c r="B18" s="11" t="str">
+        <v>订单列表与详情，优惠卡落地逻辑完善</v>
       </c>
       <c r="C18" s="11" t="str">
-        <v>17:30 ~ 19:38</v>
+        <v>17:30 ~ 19:54</v>
       </c>
       <c r="D18" s="11">
         <v>20</v>
@@ -17623,13 +17623,13 @@
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="10">
-        <v>45083</v>
-      </c>
-      <c r="B19" s="11">
-        <v/>
+        <v>45113</v>
+      </c>
+      <c r="B19" s="11" t="str">
+        <v>新版优鲜小程序-完善优惠卡券功能</v>
       </c>
       <c r="C19" s="11" t="str">
-        <v>17:30 ~ 19:32</v>
+        <v>17:30 ~ 19:24</v>
       </c>
       <c r="D19" s="11">
         <v>20</v>
@@ -17643,13 +17643,13 @@
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="10">
-        <v>45082</v>
-      </c>
-      <c r="B20" s="11">
-        <v/>
+        <v>45112</v>
+      </c>
+      <c r="B20" s="11" t="str">
+        <v>新版优鲜小程序-完善订单按钮组</v>
       </c>
       <c r="C20" s="11" t="str">
-        <v>17:30 ~ 19:45</v>
+        <v>17:30 ~ 19:44</v>
       </c>
       <c r="D20" s="11">
         <v>20</v>
@@ -17663,13 +17663,13 @@
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B21" s="11">
-        <v/>
+        <v>45111</v>
+      </c>
+      <c r="B21" s="11" t="str">
+        <v>新版优鲜小程序-service调整</v>
       </c>
       <c r="C21" s="11" t="str">
-        <v>17:30 ~ 19:19</v>
+        <v>17:30 ~ 19:13</v>
       </c>
       <c r="D21" s="11">
         <v>20</v>
@@ -17683,16 +17683,16 @@
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="10">
-        <v/>
-      </c>
-      <c r="B22" s="11">
-        <v/>
-      </c>
-      <c r="C22" s="11">
-        <v/>
+        <v>45110</v>
+      </c>
+      <c r="B22" s="11" t="str">
+        <v>新版优鲜小程序-service调整</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <v>17:30 ~ 19:35</v>
       </c>
       <c r="D22" s="11">
-        <v/>
+        <v>20</v>
       </c>
       <c r="E22" s="11">
         <v/>
@@ -17812,7 +17812,7 @@
         <v/>
       </c>
       <c r="D28" s="11">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="E28" s="11">
         <v/>
@@ -17832,7 +17832,7 @@
         <v/>
       </c>
       <c r="D29" s="8">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="E29" s="8">
         <v/>
@@ -17846,7 +17846,7 @@
         <v>实际发票   金  额</v>
       </c>
       <c r="B30" s="15" t="str">
-        <v>餐饮发票：340</v>
+        <v>餐饮发票：380</v>
       </c>
       <c r="C30" s="15">
         <v/>
@@ -17886,7 +17886,7 @@
         <v>总     计：</v>
       </c>
       <c r="B32" s="15">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="C32" s="15">
         <v/>

--- a/public/static/excel名称.xlsx
+++ b/public/static/excel名称.xlsx
@@ -17262,7 +17262,7 @@
   <sheetData>
     <row r="1" ht="60.95000000000001" customHeight="1">
       <c r="A1" s="3" t="str">
-        <v>上海飞牛集达电子商务有限公司</v>
+        <v>康成投资（中国）有限公司</v>
       </c>
       <c r="B1" s="4">
         <v/>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="6" t="str">
-        <v>申请人：＿＿＿＿陈澎＿＿＿</v>
+        <v>申请人：＿＿＿＿刘淑雯＿＿＿</v>
       </c>
       <c r="B3" s="6">
         <v/>
@@ -17343,13 +17343,13 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="10">
-        <v>45138</v>
+        <v>45132</v>
       </c>
       <c r="B5" s="11" t="str">
-        <v>一件代发退订完善</v>
+        <v/>
       </c>
       <c r="C5" s="11" t="str">
-        <v>17:30 ~ 20:07</v>
+        <v>17:30 ~ 19:38</v>
       </c>
       <c r="D5" s="11">
         <v>20</v>
@@ -17363,13 +17363,13 @@
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="10">
-        <v>45134</v>
+        <v>45131</v>
       </c>
       <c r="B6" s="11" t="str">
-        <v>低频次订购发包</v>
+        <v/>
       </c>
       <c r="C6" s="11" t="str">
-        <v>17:30 ~ 19:18</v>
+        <v>17:30 ~ 20:02</v>
       </c>
       <c r="D6" s="11">
         <v>20</v>
@@ -17383,13 +17383,13 @@
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="10">
-        <v>45133</v>
+        <v>45125</v>
       </c>
       <c r="B7" s="11" t="str">
-        <v>重构popup公共组件</v>
+        <v/>
       </c>
       <c r="C7" s="11" t="str">
-        <v>17:30 ~ 19:44</v>
+        <v>17:30 ~ 19:11</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -17403,13 +17403,13 @@
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="10">
-        <v>45132</v>
+        <v>45124</v>
       </c>
       <c r="B8" s="11" t="str">
-        <v>完善一件代发逻辑</v>
+        <v/>
       </c>
       <c r="C8" s="11" t="str">
-        <v>17:30 ~ 19:38</v>
+        <v>17:30 ~ 20:11</v>
       </c>
       <c r="D8" s="11">
         <v>20</v>
@@ -17423,16 +17423,16 @@
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="10">
-        <v>45131</v>
+        <v>45122</v>
       </c>
       <c r="B9" s="11" t="str">
-        <v>优鲜小程序bug修改</v>
+        <v/>
       </c>
       <c r="C9" s="11" t="str">
-        <v>17:30 ~ 19:48</v>
+        <v>17:30 ~ 19:02</v>
       </c>
       <c r="D9" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E9" s="11">
         <v/>
@@ -17443,13 +17443,13 @@
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="10">
-        <v>45129</v>
+        <v>45120</v>
       </c>
       <c r="B10" s="11" t="str">
-        <v>一件代发-退订流程完善</v>
+        <v/>
       </c>
       <c r="C10" s="11" t="str">
-        <v>17:30 ~ 17:38</v>
+        <v>17:30 ~ 19:04</v>
       </c>
       <c r="D10" s="11">
         <v>20</v>
@@ -17463,13 +17463,13 @@
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="10">
-        <v>45127</v>
+        <v>45119</v>
       </c>
       <c r="B11" s="11" t="str">
-        <v>订单按钮组与鲜月票样式调整</v>
+        <v/>
       </c>
       <c r="C11" s="11" t="str">
-        <v>17:30 ~ 19:45</v>
+        <v>17:30 ~ 19:14</v>
       </c>
       <c r="D11" s="11">
         <v>20</v>
@@ -17483,13 +17483,13 @@
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="10">
-        <v>45126</v>
+        <v>45118</v>
       </c>
       <c r="B12" s="11" t="str">
-        <v>优鲜-service完善</v>
+        <v/>
       </c>
       <c r="C12" s="11" t="str">
-        <v>17:30 ~ 20:03</v>
+        <v>17:30 ~ 19:26</v>
       </c>
       <c r="D12" s="11">
         <v>20</v>
@@ -17503,13 +17503,13 @@
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="10">
-        <v>45125</v>
+        <v>45113</v>
       </c>
       <c r="B13" s="11" t="str">
-        <v>182提测完善</v>
+        <v/>
       </c>
       <c r="C13" s="11" t="str">
-        <v>17:30 ~ 19:42</v>
+        <v>17:30 ~ 19:15</v>
       </c>
       <c r="D13" s="11">
         <v>20</v>
@@ -17523,13 +17523,13 @@
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="10">
-        <v>45124</v>
+        <v>45112</v>
       </c>
       <c r="B14" s="11" t="str">
-        <v>完善新版小程序容错问题</v>
+        <v/>
       </c>
       <c r="C14" s="11" t="str">
-        <v>17:30 ~ 19:50</v>
+        <v>17:30 ~ 19:44</v>
       </c>
       <c r="D14" s="11">
         <v>20</v>
@@ -17543,16 +17543,16 @@
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="10">
-        <v>45122</v>
+        <v>45111</v>
       </c>
       <c r="B15" s="11" t="str">
-        <v>182优鲜联调与调试</v>
+        <v/>
       </c>
       <c r="C15" s="11" t="str">
-        <v>17:30 ~ 19:00</v>
+        <v>17:30 ~ 19:21</v>
       </c>
       <c r="D15" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E15" s="11">
         <v/>
@@ -17563,13 +17563,13 @@
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="10">
-        <v>45120</v>
+        <v>45110</v>
       </c>
       <c r="B16" s="11" t="str">
-        <v>订单列表，详情，优惠卡券，鲜月票落地完善</v>
+        <v/>
       </c>
       <c r="C16" s="11" t="str">
-        <v>17:30 ~ 19:47</v>
+        <v>17:30 ~ 19:22</v>
       </c>
       <c r="D16" s="11">
         <v>20</v>
@@ -17583,16 +17583,16 @@
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="10">
-        <v>45119</v>
-      </c>
-      <c r="B17" s="11" t="str">
-        <v>添加确定弹框公共组件</v>
-      </c>
-      <c r="C17" s="11" t="str">
-        <v>17:30 ~ 19:33</v>
+        <v/>
+      </c>
+      <c r="B17" s="11">
+        <v/>
+      </c>
+      <c r="C17" s="11">
+        <v/>
       </c>
       <c r="D17" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E17" s="11">
         <v/>
@@ -17603,16 +17603,16 @@
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="10">
-        <v>45118</v>
-      </c>
-      <c r="B18" s="11" t="str">
-        <v>订单列表与详情，优惠卡落地逻辑完善</v>
-      </c>
-      <c r="C18" s="11" t="str">
-        <v>17:30 ~ 19:54</v>
+        <v/>
+      </c>
+      <c r="B18" s="11">
+        <v/>
+      </c>
+      <c r="C18" s="11">
+        <v/>
       </c>
       <c r="D18" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E18" s="11">
         <v/>
@@ -17623,16 +17623,16 @@
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="10">
-        <v>45113</v>
-      </c>
-      <c r="B19" s="11" t="str">
-        <v>新版优鲜小程序-完善优惠卡券功能</v>
-      </c>
-      <c r="C19" s="11" t="str">
-        <v>17:30 ~ 19:24</v>
+        <v/>
+      </c>
+      <c r="B19" s="11">
+        <v/>
+      </c>
+      <c r="C19" s="11">
+        <v/>
       </c>
       <c r="D19" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E19" s="11">
         <v/>
@@ -17643,16 +17643,16 @@
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="10">
-        <v>45112</v>
-      </c>
-      <c r="B20" s="11" t="str">
-        <v>新版优鲜小程序-完善订单按钮组</v>
-      </c>
-      <c r="C20" s="11" t="str">
-        <v>17:30 ~ 19:44</v>
+        <v/>
+      </c>
+      <c r="B20" s="11">
+        <v/>
+      </c>
+      <c r="C20" s="11">
+        <v/>
       </c>
       <c r="D20" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E20" s="11">
         <v/>
@@ -17663,16 +17663,16 @@
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="10">
-        <v>45111</v>
-      </c>
-      <c r="B21" s="11" t="str">
-        <v>新版优鲜小程序-service调整</v>
-      </c>
-      <c r="C21" s="11" t="str">
-        <v>17:30 ~ 19:13</v>
+        <v/>
+      </c>
+      <c r="B21" s="11">
+        <v/>
+      </c>
+      <c r="C21" s="11">
+        <v/>
       </c>
       <c r="D21" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E21" s="11">
         <v/>
@@ -17683,16 +17683,16 @@
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="10">
-        <v>45110</v>
-      </c>
-      <c r="B22" s="11" t="str">
-        <v>新版优鲜小程序-service调整</v>
-      </c>
-      <c r="C22" s="11" t="str">
-        <v>17:30 ~ 19:35</v>
+        <v/>
+      </c>
+      <c r="B22" s="11">
+        <v/>
+      </c>
+      <c r="C22" s="11">
+        <v/>
       </c>
       <c r="D22" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E22" s="11">
         <v/>
@@ -17812,7 +17812,7 @@
         <v/>
       </c>
       <c r="D28" s="11">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="E28" s="11">
         <v/>
@@ -17832,7 +17832,7 @@
         <v/>
       </c>
       <c r="D29" s="8">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="E29" s="8">
         <v/>
@@ -17846,7 +17846,7 @@
         <v>实际发票   金  额</v>
       </c>
       <c r="B30" s="15" t="str">
-        <v>餐饮发票：380</v>
+        <v>餐饮发票：260</v>
       </c>
       <c r="C30" s="15">
         <v/>
@@ -17886,7 +17886,7 @@
         <v>总     计：</v>
       </c>
       <c r="B32" s="15">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="C32" s="15">
         <v/>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="35" ht="40.5" customHeight="1">
       <c r="A35" s="19" t="str">
-        <v>申请人签名：_____陈澎______  直属主管签名：__________  部门主管签名：__________</v>
+        <v>申请人签名：_____刘淑雯______  直属主管签名：__________  部门主管签名：__________</v>
       </c>
       <c r="B35" s="19">
         <v/>

--- a/public/static/excel名称.xlsx
+++ b/public/static/excel名称.xlsx
@@ -17308,7 +17308,7 @@
         <v/>
       </c>
       <c r="C3" s="7" t="str">
-        <v>年度/月份：＿＿2023/07＿＿＿＿</v>
+        <v>年度/月份：＿＿2023/12＿＿＿＿</v>
       </c>
       <c r="D3" s="7">
         <v/>
@@ -17343,13 +17343,13 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="10">
-        <v>45132</v>
+        <v>45286</v>
       </c>
       <c r="B5" s="11" t="str">
         <v/>
       </c>
       <c r="C5" s="11" t="str">
-        <v>17:30 ~ 19:38</v>
+        <v>17:30 ~ 19:32</v>
       </c>
       <c r="D5" s="11">
         <v>20</v>
@@ -17363,13 +17363,13 @@
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="10">
-        <v>45131</v>
+        <v>45285</v>
       </c>
       <c r="B6" s="11" t="str">
         <v/>
       </c>
       <c r="C6" s="11" t="str">
-        <v>17:30 ~ 20:02</v>
+        <v>17:30 ~ 19:16</v>
       </c>
       <c r="D6" s="11">
         <v>20</v>
@@ -17383,13 +17383,13 @@
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="10">
-        <v>45125</v>
+        <v>45280</v>
       </c>
       <c r="B7" s="11" t="str">
         <v/>
       </c>
       <c r="C7" s="11" t="str">
-        <v>17:30 ~ 19:11</v>
+        <v>17:30 ~ 19:17</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -17403,13 +17403,13 @@
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="10">
-        <v>45124</v>
+        <v>45279</v>
       </c>
       <c r="B8" s="11" t="str">
         <v/>
       </c>
       <c r="C8" s="11" t="str">
-        <v>17:30 ~ 20:11</v>
+        <v>17:30 ~ 19:15</v>
       </c>
       <c r="D8" s="11">
         <v>20</v>
@@ -17423,16 +17423,16 @@
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="10">
-        <v>45122</v>
+        <v>45278</v>
       </c>
       <c r="B9" s="11" t="str">
         <v/>
       </c>
       <c r="C9" s="11" t="str">
-        <v>17:30 ~ 19:02</v>
+        <v>17:30 ~ 19:10</v>
       </c>
       <c r="D9" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E9" s="11">
         <v/>
@@ -17443,13 +17443,13 @@
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="10">
-        <v>45120</v>
+        <v>45271</v>
       </c>
       <c r="B10" s="11" t="str">
         <v/>
       </c>
       <c r="C10" s="11" t="str">
-        <v>17:30 ~ 19:04</v>
+        <v>17:30 ~ 19:28</v>
       </c>
       <c r="D10" s="11">
         <v>20</v>
@@ -17463,13 +17463,13 @@
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="10">
-        <v>45119</v>
+        <v>45266</v>
       </c>
       <c r="B11" s="11" t="str">
         <v/>
       </c>
       <c r="C11" s="11" t="str">
-        <v>17:30 ~ 19:14</v>
+        <v>17:30 ~ 19:18</v>
       </c>
       <c r="D11" s="11">
         <v>20</v>
@@ -17483,13 +17483,13 @@
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="10">
-        <v>45118</v>
+        <v>45265</v>
       </c>
       <c r="B12" s="11" t="str">
         <v/>
       </c>
       <c r="C12" s="11" t="str">
-        <v>17:30 ~ 19:26</v>
+        <v>17:30 ~ 19:14</v>
       </c>
       <c r="D12" s="11">
         <v>20</v>
@@ -17503,13 +17503,13 @@
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="10">
-        <v>45113</v>
+        <v>45264</v>
       </c>
       <c r="B13" s="11" t="str">
         <v/>
       </c>
       <c r="C13" s="11" t="str">
-        <v>17:30 ~ 19:15</v>
+        <v>17:30 ~ 19:10</v>
       </c>
       <c r="D13" s="11">
         <v>20</v>
@@ -17523,16 +17523,16 @@
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="10">
-        <v>45112</v>
-      </c>
-      <c r="B14" s="11" t="str">
         <v/>
       </c>
-      <c r="C14" s="11" t="str">
-        <v>17:30 ~ 19:44</v>
+      <c r="B14" s="11">
+        <v/>
+      </c>
+      <c r="C14" s="11">
+        <v/>
       </c>
       <c r="D14" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E14" s="11">
         <v/>
@@ -17543,16 +17543,16 @@
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="10">
-        <v>45111</v>
-      </c>
-      <c r="B15" s="11" t="str">
         <v/>
       </c>
-      <c r="C15" s="11" t="str">
-        <v>17:30 ~ 19:21</v>
+      <c r="B15" s="11">
+        <v/>
+      </c>
+      <c r="C15" s="11">
+        <v/>
       </c>
       <c r="D15" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E15" s="11">
         <v/>
@@ -17563,16 +17563,16 @@
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="10">
-        <v>45110</v>
-      </c>
-      <c r="B16" s="11" t="str">
         <v/>
       </c>
-      <c r="C16" s="11" t="str">
-        <v>17:30 ~ 19:22</v>
+      <c r="B16" s="11">
+        <v/>
+      </c>
+      <c r="C16" s="11">
+        <v/>
       </c>
       <c r="D16" s="11">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E16" s="11">
         <v/>
@@ -17812,7 +17812,7 @@
         <v/>
       </c>
       <c r="D28" s="11">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="E28" s="11">
         <v/>
@@ -17832,7 +17832,7 @@
         <v/>
       </c>
       <c r="D29" s="8">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="E29" s="8">
         <v/>
@@ -17846,7 +17846,7 @@
         <v>实际发票   金  额</v>
       </c>
       <c r="B30" s="15" t="str">
-        <v>餐饮发票：260</v>
+        <v>餐饮发票：180</v>
       </c>
       <c r="C30" s="15">
         <v/>
@@ -17886,7 +17886,7 @@
         <v>总     计：</v>
       </c>
       <c r="B32" s="15">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="C32" s="15">
         <v/>
